--- a/Артефакты проектного практикума/План работ над проектом.xlsx
+++ b/Артефакты проектного практикума/План работ над проектом.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15354E5C-BF21-4E10-B0A0-1793AB94DD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914510EB-F4E8-415C-B872-6602214918B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Планировщик проекта" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Планировщик проекта</t>
   </si>
@@ -153,12 +153,6 @@
     <t>Первоначальное тестирование связки "Вопрос -&gt; Векторный поиск -&gt; Ответ LLM"</t>
   </si>
   <si>
-    <t>Базовое логирование запросов и ответов в реляционную БД</t>
-  </si>
-  <si>
-    <t>Фиксы и доработки интерфейса бота на основе первичного тестирования</t>
-  </si>
-  <si>
     <t>Оптимизация промтов и параметров RAG-пайплайна для улучшения ответов</t>
   </si>
   <si>
@@ -184,6 +178,15 @@
   </si>
   <si>
     <t>Начало работы: 23.10.2025</t>
+  </si>
+  <si>
+    <t>Доразметка базы знаний</t>
+  </si>
+  <si>
+    <t>Добавление повторов, обработки ошибок и логирования</t>
+  </si>
+  <si>
+    <t>Сохранение запросов и ответов в реляционную БД</t>
   </si>
 </sst>
 </file>
@@ -664,6 +667,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -690,12 +699,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1442,10 +1445,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BY35"/>
+  <dimension ref="A1:BY36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1475,7 +1478,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="AQ1" s="31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:77" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1493,53 +1496,53 @@
         <v>1</v>
       </c>
       <c r="J2" s="12"/>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="40"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="42"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="17"/>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="40"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="42"/>
       <c r="X2" s="18"/>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="34"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="36"/>
       <c r="AD2" s="19"/>
-      <c r="AE2" s="32" t="s">
+      <c r="AE2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="34"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="36"/>
       <c r="AL2" s="15"/>
       <c r="AM2" s="20"/>
-      <c r="AN2" s="32" t="s">
+      <c r="AN2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="34"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="36"/>
       <c r="AV2" s="15"/>
       <c r="AW2" s="15"/>
       <c r="AX2" s="15"/>
@@ -1549,22 +1552,22 @@
       <c r="BB2" s="15"/>
     </row>
     <row r="3" spans="1:77" s="8" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="39" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -1591,12 +1594,12 @@
       <c r="AA3" s="7"/>
     </row>
     <row r="4" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1809,7 +1812,7 @@
       </c>
     </row>
     <row r="5" spans="1:77" ht="63" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="21">
@@ -1905,7 +1908,7 @@
       <c r="BY8" s="1"/>
     </row>
     <row r="9" spans="1:77" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="32" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="21">
@@ -1978,7 +1981,7 @@
     </row>
     <row r="12" spans="1:77" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="21">
         <v>7</v>
@@ -2001,7 +2004,7 @@
       <c r="BY12" s="1"/>
     </row>
     <row r="13" spans="1:77" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="32" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="21">
@@ -2050,7 +2053,7 @@
     </row>
     <row r="15" spans="1:77" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="28">
         <v>12</v>
@@ -2073,7 +2076,7 @@
       <c r="BY15" s="1"/>
     </row>
     <row r="16" spans="1:77" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="32" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="21">
@@ -2121,7 +2124,7 @@
       <c r="BY17" s="1"/>
     </row>
     <row r="18" spans="2:77" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="33" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="27">
@@ -2169,8 +2172,8 @@
       <c r="BY19" s="1"/>
     </row>
     <row r="20" spans="2:77" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="41" t="s">
-        <v>40</v>
+      <c r="B20" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="C20" s="21">
         <v>19</v>
@@ -2240,11 +2243,11 @@
       <c r="BX22" s="1"/>
       <c r="BY22" s="1"/>
     </row>
-    <row r="23" spans="2:77" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:77" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="28">
+        <v>46</v>
+      </c>
+      <c r="C23" s="27">
         <v>36</v>
       </c>
       <c r="D23" s="21">
@@ -2253,9 +2256,11 @@
       <c r="E23" s="21">
         <v>30</v>
       </c>
-      <c r="F23" s="21"/>
+      <c r="F23" s="21">
+        <v>8</v>
+      </c>
       <c r="G23" s="22">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="BV23" s="1"/>
       <c r="BW23" s="1"/>
@@ -2263,43 +2268,47 @@
       <c r="BY23" s="1"/>
     </row>
     <row r="24" spans="2:77" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="27">
-        <v>25</v>
+      <c r="B24" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="28">
+        <v>43</v>
       </c>
       <c r="D24" s="21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E24" s="21">
-        <v>27</v>
-      </c>
-      <c r="F24" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="F24" s="21">
+        <v>9</v>
+      </c>
       <c r="G24" s="22">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="BV24" s="1"/>
       <c r="BW24" s="1"/>
       <c r="BX24" s="1"/>
       <c r="BY24" s="1"/>
     </row>
-    <row r="25" spans="2:77" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="42" t="s">
-        <v>34</v>
+    <row r="25" spans="2:77" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="C25" s="27">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D25" s="21">
+        <v>7</v>
+      </c>
+      <c r="E25" s="21">
+        <v>27</v>
+      </c>
+      <c r="F25" s="21">
         <v>5</v>
       </c>
-      <c r="E25" s="21">
-        <v>29</v>
-      </c>
-      <c r="F25" s="21"/>
       <c r="G25" s="22">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="BV25" s="1"/>
       <c r="BW25" s="1"/>
@@ -2307,81 +2316,95 @@
       <c r="BY25" s="1"/>
     </row>
     <row r="26" spans="2:77" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B26" s="41" t="s">
-        <v>35</v>
+      <c r="B26" s="33" t="s">
+        <v>34</v>
       </c>
       <c r="C26" s="27">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D26" s="21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E26" s="21">
-        <v>27</v>
-      </c>
-      <c r="F26" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="F26" s="21">
+        <v>6</v>
+      </c>
       <c r="G26" s="22">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="BV26" s="1"/>
       <c r="BW26" s="1"/>
       <c r="BX26" s="1"/>
       <c r="BY26" s="1"/>
     </row>
-    <row r="27" spans="2:77" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="25" t="s">
-        <v>21</v>
+    <row r="27" spans="2:77" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="C27" s="27">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D27" s="21">
+        <v>10</v>
+      </c>
+      <c r="E27" s="21">
+        <v>27</v>
+      </c>
+      <c r="F27" s="21">
         <v>9</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
       <c r="G27" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV27" s="1"/>
       <c r="BW27" s="1"/>
       <c r="BX27" s="1"/>
       <c r="BY27" s="1"/>
     </row>
-    <row r="28" spans="2:77" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
-        <v>37</v>
+    <row r="28" spans="2:77" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="C28" s="27">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D28" s="21">
-        <v>6</v>
-      </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
+        <v>9</v>
+      </c>
+      <c r="E28" s="21">
+        <v>32</v>
+      </c>
+      <c r="F28" s="21">
+        <v>9</v>
+      </c>
       <c r="G28" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV28" s="1"/>
       <c r="BW28" s="1"/>
       <c r="BX28" s="1"/>
       <c r="BY28" s="1"/>
     </row>
-    <row r="29" spans="2:77" ht="63" x14ac:dyDescent="0.25">
-      <c r="B29" s="30" t="s">
-        <v>39</v>
+    <row r="29" spans="2:77" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="C29" s="27">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D29" s="21">
-        <v>12</v>
-      </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
+        <v>6</v>
+      </c>
+      <c r="E29" s="21">
+        <v>35</v>
+      </c>
+      <c r="F29" s="21">
+        <v>7</v>
+      </c>
       <c r="G29" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV29" s="1"/>
       <c r="BW29" s="1"/>
@@ -2389,19 +2412,21 @@
       <c r="BY29" s="1"/>
     </row>
     <row r="30" spans="2:77" ht="63" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="28">
-        <v>42</v>
+      <c r="B30" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="27">
+        <v>48</v>
       </c>
       <c r="D30" s="21">
         <v>7</v>
       </c>
-      <c r="E30" s="21"/>
+      <c r="E30" s="21">
+        <v>47</v>
+      </c>
       <c r="F30" s="21"/>
       <c r="G30" s="22">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="BV30" s="1"/>
       <c r="BW30" s="1"/>
@@ -2409,19 +2434,23 @@
       <c r="BY30" s="1"/>
     </row>
     <row r="31" spans="2:77" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="41" t="s">
-        <v>43</v>
+      <c r="B31" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="C31" s="28">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D31" s="21">
-        <v>10</v>
-      </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="E31" s="21">
+        <v>42</v>
+      </c>
+      <c r="F31" s="21">
+        <v>7</v>
+      </c>
       <c r="G31" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV31" s="1"/>
       <c r="BW31" s="1"/>
@@ -2429,84 +2458,122 @@
       <c r="BY31" s="1"/>
     </row>
     <row r="32" spans="2:77" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B32" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="27">
+      <c r="B32" s="32" t="s">
         <v>41</v>
       </c>
+      <c r="C32" s="28">
+        <v>33</v>
+      </c>
       <c r="D32" s="21">
-        <v>7</v>
-      </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="E32" s="21">
+        <v>36</v>
+      </c>
+      <c r="F32" s="21">
+        <v>9</v>
+      </c>
       <c r="G32" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV32" s="1"/>
       <c r="BW32" s="1"/>
       <c r="BX32" s="1"/>
       <c r="BY32" s="1"/>
     </row>
-    <row r="33" spans="2:77" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="23" t="s">
-        <v>22</v>
+    <row r="33" spans="2:77" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B33" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="C33" s="27">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D33" s="21">
+        <v>7</v>
+      </c>
+      <c r="E33" s="21">
+        <v>41</v>
+      </c>
+      <c r="F33" s="21">
         <v>6</v>
       </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
       <c r="G33" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV33" s="1"/>
       <c r="BW33" s="1"/>
       <c r="BX33" s="1"/>
       <c r="BY33" s="1"/>
     </row>
-    <row r="34" spans="2:77" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B34" s="25" t="s">
-        <v>45</v>
+    <row r="34" spans="2:77" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B34" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="C34" s="27">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D34" s="21">
-        <v>7</v>
-      </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
+        <v>6</v>
+      </c>
+      <c r="E34" s="21">
+        <v>49</v>
+      </c>
+      <c r="F34" s="21">
+        <v>6</v>
+      </c>
       <c r="G34" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV34" s="1"/>
       <c r="BW34" s="1"/>
       <c r="BX34" s="1"/>
       <c r="BY34" s="1"/>
     </row>
-    <row r="35" spans="2:77" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B35" s="41" t="s">
-        <v>23</v>
+    <row r="35" spans="2:77" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B35" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="C35" s="27">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D35" s="21">
-        <v>12</v>
-      </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="E35" s="21">
+        <v>47</v>
+      </c>
+      <c r="F35" s="21">
+        <v>5</v>
+      </c>
       <c r="G35" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV35" s="1"/>
       <c r="BW35" s="1"/>
       <c r="BX35" s="1"/>
       <c r="BY35" s="1"/>
+    </row>
+    <row r="36" spans="2:77" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="27">
+        <v>43</v>
+      </c>
+      <c r="D36" s="21">
+        <v>12</v>
+      </c>
+      <c r="E36" s="21">
+        <v>45</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="BV36" s="1"/>
+      <c r="BW36" s="1"/>
+      <c r="BX36" s="1"/>
+      <c r="BY36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2527,7 +2594,7 @@
       <formula>H$4=выбранный_период</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BY35">
+  <conditionalFormatting sqref="H5:BY36">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>ПроцентВыполнения</formula>
     </cfRule>
